--- a/sub/span.xlsx
+++ b/sub/span.xlsx
@@ -260,7 +260,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -379,12 +379,22 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="0" t="inlineStr">
         <is>
           <t>Ramesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kaif</t>
         </is>
       </c>
     </row>
